--- a/medicine/Psychotrope/Brasserie_du_Bocq/Brasserie_du_Bocq.xlsx
+++ b/medicine/Psychotrope/Brasserie_du_Bocq/Brasserie_du_Bocq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie du Bocq sa est une brasserie familiale belge située à Purnode, dans la commune d'Yvoir en province de Namur.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie a été fondée à Purnode en 1858 par Martin Belot qui brassait uniquement l'hiver dans une dépendance de sa ferme lorsque les travaux agricoles procuraient plus de temps libre. Les bières sont vendues localement. Peu après la Première Guerre mondiale, la brasserie crée la Gauloise, une bière brune de fermentation haute. Cette bière rencontre un succès immédiat. En 1967, la brasserie rachète la Brasserie Centrale de Marbaix-La-Tour qui finira par fermer en 1985[1].
-Jusqu'en 2003 la famille Belot a dirigé la brasserie mais le nombre d'actionnaires familiaux de la sixième génération[2] était devenu trop nombreux . Ils ont alors confié à Francis Deraedt la direction de l'entreprise[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie a été fondée à Purnode en 1858 par Martin Belot qui brassait uniquement l'hiver dans une dépendance de sa ferme lorsque les travaux agricoles procuraient plus de temps libre. Les bières sont vendues localement. Peu après la Première Guerre mondiale, la brasserie crée la Gauloise, une bière brune de fermentation haute. Cette bière rencontre un succès immédiat. En 1967, la brasserie rachète la Brasserie Centrale de Marbaix-La-Tour qui finira par fermer en 1985.
+Jusqu'en 2003 la famille Belot a dirigé la brasserie mais le nombre d'actionnaires familiaux de la sixième génération était devenu trop nombreux . Ils ont alors confié à Francis Deraedt la direction de l'entreprise.
 La production annuelle est de 94 000 hectolitres dont environ les deux tiers sont des bières à façon comme la Ramée, la Corsendonk et la Queue de Charrue. On y compte 45 personnes employées.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Située au sein du village de Purnode dans le Condroz namurois le long de la rue pavée et en côte logiquement baptisée de la Brasserie, l'entreprise est formée de plusieurs bâtiments contigus blanchis à la chaux. Le Bocq, qui a donné son nom à la brasserie, coule à environ 1 km plus au nord.
 </t>
@@ -576,7 +592,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Applebocq - 3,1 % vol. - bière blanche à la pomme.
 Redbocq - 3,1 % vol. - bière de type blanche mais de couleur rose aux quatre fruits rouges : cerise, fraise, prune et cassis.
@@ -598,7 +616,7 @@
 La Gaumaise blonde et brune pour une entreprise de Sainte-Marie-sur-Semois.
 La Godefroy blonde et brune pour la confrérie de la Bière Godefroy à Bouillon.
 Cuvée St Hadelin blonde et ambrée pour le village de Celles
-La Buvette, bière blonde Triple (7,5% vol) pour le club de l'union sportive Flavion-Morialmé[4]</t>
+La Buvette, bière blonde Triple (7,5% vol) pour le club de l'union sportive Flavion-Morialmé</t>
         </is>
       </c>
     </row>
